--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>544.3632907939721</v>
+        <v>498.7532563354525</v>
       </c>
       <c r="R2">
-        <v>4899.269617145748</v>
+        <v>4488.779307019073</v>
       </c>
       <c r="S2">
-        <v>0.007152063476580989</v>
+        <v>0.004037048328052291</v>
       </c>
       <c r="T2">
-        <v>0.007539210821963043</v>
+        <v>0.004223808370740928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>3584.978634018715</v>
+        <v>2524.827087857085</v>
       </c>
       <c r="R3">
-        <v>32264.80770616843</v>
+        <v>22723.44379071376</v>
       </c>
       <c r="S3">
-        <v>0.04710088866442787</v>
+        <v>0.02043665649131933</v>
       </c>
       <c r="T3">
-        <v>0.04965050026551033</v>
+        <v>0.02138208754108167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>3010.704377033512</v>
+        <v>2942.698319476427</v>
       </c>
       <c r="R4">
-        <v>27096.33939330161</v>
+        <v>26484.28487528785</v>
       </c>
       <c r="S4">
-        <v>0.03955584290475881</v>
+        <v>0.02381902309348421</v>
       </c>
       <c r="T4">
-        <v>0.04169703469158671</v>
+        <v>0.02492092760595433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>1329.718673037701</v>
+        <v>898.8796840903627</v>
       </c>
       <c r="R5">
-        <v>7978.312038226203</v>
+        <v>5393.278104542177</v>
       </c>
       <c r="S5">
-        <v>0.01747037780907247</v>
+        <v>0.007275783525584624</v>
       </c>
       <c r="T5">
-        <v>0.01227737625402125</v>
+        <v>0.005074914948052316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>3099.421107057177</v>
+        <v>3410.982172788125</v>
       </c>
       <c r="R6">
-        <v>27894.78996351459</v>
+        <v>30698.83955509313</v>
       </c>
       <c r="S6">
-        <v>0.04072143892362059</v>
+        <v>0.02760944355300372</v>
       </c>
       <c r="T6">
-        <v>0.04292572542513717</v>
+        <v>0.02888669872499127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>162.3696912724409</v>
+        <v>211.2305885181902</v>
       </c>
       <c r="R7">
-        <v>1461.327221451968</v>
+        <v>1901.075296663712</v>
       </c>
       <c r="S7">
-        <v>0.00213327819544847</v>
+        <v>0.001709759451950962</v>
       </c>
       <c r="T7">
-        <v>0.002248754378375765</v>
+        <v>0.001788855544513154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>1069.307728621662</v>
@@ -948,10 +948,10 @@
         <v>9623.769557594958</v>
       </c>
       <c r="S8">
-        <v>0.01404899426621192</v>
+        <v>0.008655275776489446</v>
       </c>
       <c r="T8">
-        <v>0.01480947840526653</v>
+        <v>0.009055682098669634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>898.0163587050807</v>
+        <v>1246.283387544293</v>
       </c>
       <c r="R9">
-        <v>8082.147228345727</v>
+        <v>11216.55048789864</v>
       </c>
       <c r="S9">
-        <v>0.01179849947467835</v>
+        <v>0.01008776624925145</v>
       </c>
       <c r="T9">
-        <v>0.01243716239567593</v>
+        <v>0.01055444177608423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>396.6211794065413</v>
+        <v>380.6910175835493</v>
       </c>
       <c r="R10">
-        <v>2379.727076439248</v>
+        <v>2284.146105501296</v>
       </c>
       <c r="S10">
-        <v>0.005210968298642321</v>
+        <v>0.003081419552690646</v>
       </c>
       <c r="T10">
-        <v>0.003662028328716802</v>
+        <v>0.002149313829112845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>924.4782974659271</v>
+        <v>1444.609659447502</v>
       </c>
       <c r="R11">
-        <v>8320.304677193344</v>
+        <v>13001.48693502752</v>
       </c>
       <c r="S11">
-        <v>0.01214616705059982</v>
+        <v>0.01169307455395992</v>
       </c>
       <c r="T11">
-        <v>0.01280364951640907</v>
+        <v>0.01223401410320544</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>1327.538246027067</v>
+        <v>2469.92496056514</v>
       </c>
       <c r="R12">
-        <v>11947.8442142436</v>
+        <v>22229.32464508626</v>
       </c>
       <c r="S12">
-        <v>0.01744173048356425</v>
+        <v>0.01999226332019708</v>
       </c>
       <c r="T12">
-        <v>0.01838586635116272</v>
+        <v>0.02091713606080256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>8742.684027992167</v>
+        <v>12503.44407017745</v>
       </c>
       <c r="R13">
-        <v>78684.1562519295</v>
+        <v>112530.996631597</v>
       </c>
       <c r="S13">
-        <v>0.114864892951711</v>
+        <v>0.1012063727649234</v>
       </c>
       <c r="T13">
-        <v>0.1210826283688339</v>
+        <v>0.1058883346742222</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>7342.201936805067</v>
+        <v>14572.82521640205</v>
       </c>
       <c r="R14">
-        <v>66079.81743124561</v>
+        <v>131155.4269476185</v>
       </c>
       <c r="S14">
-        <v>0.09646479694344443</v>
+        <v>0.1179565224438461</v>
       </c>
       <c r="T14">
-        <v>0.1016865193431073</v>
+        <v>0.12341337194796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>3242.78367914785</v>
+        <v>4451.430321662805</v>
       </c>
       <c r="R15">
-        <v>19456.7020748871</v>
+        <v>26708.58192997683</v>
       </c>
       <c r="S15">
-        <v>0.04260499395589127</v>
+        <v>0.03603112182073327</v>
       </c>
       <c r="T15">
-        <v>0.0299408259405324</v>
+        <v>0.02513198449076184</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>7558.555342996535</v>
+        <v>16891.8596552394</v>
       </c>
       <c r="R16">
-        <v>68026.99808696882</v>
+        <v>152026.7368971546</v>
       </c>
       <c r="S16">
-        <v>0.09930733485998725</v>
+        <v>0.1367274356861795</v>
       </c>
       <c r="T16">
-        <v>0.1046829262811068</v>
+        <v>0.1430526564045003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>145.67269618798</v>
+        <v>279.0182494070054</v>
       </c>
       <c r="R17">
-        <v>874.03617712788</v>
+        <v>1674.109496442032</v>
       </c>
       <c r="S17">
-        <v>0.00191390637017706</v>
+        <v>0.002258451735314635</v>
       </c>
       <c r="T17">
-        <v>0.001345005178389979</v>
+        <v>0.001575287449207333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H18">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I18">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J18">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>959.347392128725</v>
+        <v>1412.467638377593</v>
       </c>
       <c r="R18">
-        <v>5756.08435277235</v>
+        <v>8474.805830265559</v>
       </c>
       <c r="S18">
-        <v>0.01260429121623837</v>
+        <v>0.01143290804723094</v>
       </c>
       <c r="T18">
-        <v>0.008857714891354682</v>
+        <v>0.007974541263435652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>805.6704620690799</v>
+        <v>1646.23794071234</v>
       </c>
       <c r="R19">
-        <v>4834.02277241448</v>
+        <v>9877.427644274041</v>
       </c>
       <c r="S19">
-        <v>0.01058522200775152</v>
+        <v>0.01332511024581473</v>
       </c>
       <c r="T19">
-        <v>0.007438806117519875</v>
+        <v>0.009294366844909195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>355.8353539791075</v>
+        <v>502.861550669714</v>
       </c>
       <c r="R20">
-        <v>1423.34141591643</v>
+        <v>2011.446202678856</v>
       </c>
       <c r="S20">
-        <v>0.004675107748647668</v>
+        <v>0.00407030201123651</v>
       </c>
       <c r="T20">
-        <v>0.002190300155898956</v>
+        <v>0.001892711297898947</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>829.4112349648401</v>
+        <v>1908.210648292453</v>
       </c>
       <c r="R21">
-        <v>4976.46740978904</v>
+        <v>11449.26388975472</v>
       </c>
       <c r="S21">
-        <v>0.01089713781398805</v>
+        <v>0.01544559059897017</v>
       </c>
       <c r="T21">
-        <v>0.007658006168863556</v>
+        <v>0.01077341819428468</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H22">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I22">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J22">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>1401.379100834885</v>
+        <v>2537.292212487951</v>
       </c>
       <c r="R22">
-        <v>12612.41190751396</v>
+        <v>22835.62991239156</v>
       </c>
       <c r="S22">
-        <v>0.01841188128116899</v>
+        <v>0.02053755269582682</v>
       </c>
       <c r="T22">
-        <v>0.01940853224558432</v>
+        <v>0.02148765135863953</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H23">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I23">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J23">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>9228.973039908466</v>
+        <v>12844.47575333664</v>
       </c>
       <c r="R23">
-        <v>83060.75735917619</v>
+        <v>115600.2817800297</v>
       </c>
       <c r="S23">
-        <v>0.1212539532355455</v>
+        <v>0.1039667785744539</v>
       </c>
       <c r="T23">
-        <v>0.1278175339791916</v>
+        <v>0.1087764410869988</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H24">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I24">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J24">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>7750.592782649103</v>
+        <v>14970.29931106273</v>
       </c>
       <c r="R24">
-        <v>69755.33504384193</v>
+        <v>134732.6937995646</v>
       </c>
       <c r="S24">
-        <v>0.1018303998452694</v>
+        <v>0.1211737889156158</v>
       </c>
       <c r="T24">
-        <v>0.1073425669433914</v>
+        <v>0.126779474097379</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H25">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I25">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J25">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>3423.155069231504</v>
+        <v>4572.843171317833</v>
       </c>
       <c r="R25">
-        <v>20538.93041538903</v>
+        <v>27437.059027907</v>
       </c>
       <c r="S25">
-        <v>0.0449747856980124</v>
+        <v>0.03701387137770905</v>
       </c>
       <c r="T25">
-        <v>0.03160620634498962</v>
+        <v>0.02581745986250024</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H26">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I26">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J26">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>7978.980283151279</v>
+        <v>17352.58545987231</v>
       </c>
       <c r="R26">
-        <v>71810.82254836151</v>
+        <v>156173.2691388508</v>
       </c>
       <c r="S26">
-        <v>0.1048310465245611</v>
+        <v>0.1404566791861614</v>
       </c>
       <c r="T26">
-        <v>0.1105056412074104</v>
+        <v>0.1469544204240939</v>
       </c>
     </row>
   </sheetData>
